--- a/documents/Yatzy SCRUM BURNdown.xlsx
+++ b/documents/Yatzy SCRUM BURNdown.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 2" sheetId="1" state="visible" r:id="rId2"/>
@@ -249,7 +249,7 @@
     <numFmt numFmtId="166" formatCode="D\-MMM"/>
     <numFmt numFmtId="167" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -321,6 +321,12 @@
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -638,7 +644,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -675,6 +681,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -752,6 +759,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -808,11 +816,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="57506159"/>
-        <c:axId val="83923388"/>
+        <c:axId val="62361417"/>
+        <c:axId val="40097229"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57506159"/>
+        <c:axId val="62361417"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -845,14 +853,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83923388"/>
+        <c:crossAx val="40097229"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83923388"/>
+        <c:axId val="40097229"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +902,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57506159"/>
+        <c:crossAx val="62361417"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -927,7 +935,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -964,6 +972,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1029,6 +1038,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1073,11 +1083,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="35140071"/>
-        <c:axId val="2258221"/>
+        <c:axId val="90169957"/>
+        <c:axId val="85413958"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="35140071"/>
+        <c:axId val="90169957"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1110,14 +1120,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2258221"/>
+        <c:crossAx val="85413958"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2258221"/>
+        <c:axId val="85413958"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1159,7 +1169,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35140071"/>
+        <c:crossAx val="90169957"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1203,9 +1213,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>894960</xdr:colOff>
+      <xdr:colOff>894600</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1213,8 +1223,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1584720" y="6600600"/>
-        <a:ext cx="11403000" cy="3619080"/>
+        <a:off x="1607760" y="6600600"/>
+        <a:ext cx="11539800" cy="3618720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1238,9 +1248,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>894960</xdr:colOff>
+      <xdr:colOff>894600</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1248,8 +1258,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1584720" y="5200560"/>
-        <a:ext cx="11403000" cy="3619080"/>
+        <a:off x="1607760" y="5200560"/>
+        <a:ext cx="11539800" cy="3618720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1269,15 +1279,15 @@
   </sheetPr>
   <dimension ref="A1:S112"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A181" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.9234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.2448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="17.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2448979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.6734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="17.8214285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2556,15 +2566,15 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.9234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.2448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="17.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2448979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.6734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="17.8214285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
